--- a/src/main/resources/xlsx/管理机构人员.xlsx
+++ b/src/main/resources/xlsx/管理机构人员.xlsx
@@ -5,179 +5,116 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lichee\Desktop\20191015\数据管理相关表格\重要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lichee\Desktop\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB2791-5814-4460-907E-C381ADB9DD50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E299D9A-3DDA-4BD1-9CE2-E39B7A930FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{52F8939F-4C71-4D9B-BD43-8685DBA26640}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="manageperson" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
-  <si>
-    <t>陶宏</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>汉族</t>
-  </si>
-  <si>
-    <t>四川省教育学院</t>
-  </si>
-  <si>
-    <t>化学教育</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>副研究员</t>
-  </si>
-  <si>
-    <t>地质公园管理</t>
-  </si>
-  <si>
-    <t>/images/geolandscape/15689650367790.jpg</t>
-  </si>
-  <si>
-    <t>王文伟</t>
-  </si>
-  <si>
-    <t>成都理工大学</t>
-  </si>
-  <si>
-    <t>第四纪地质学</t>
-  </si>
-  <si>
-    <t>硕士研究生</t>
-  </si>
-  <si>
-    <t>文博馆员</t>
-  </si>
-  <si>
-    <t>/images/geolandscape/15689651894001.jpg</t>
-  </si>
-  <si>
-    <t>孙莉</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>中国地质大学（北京）</t>
-  </si>
-  <si>
-    <t>自然地理学</t>
-  </si>
-  <si>
-    <t>业务科长、文博馆员</t>
-  </si>
-  <si>
-    <t>公园管理、遗迹保护及评价、环境教育</t>
-  </si>
-  <si>
-    <t>/images/geolandscape/15689672480172.jpg</t>
-  </si>
-  <si>
-    <t>管理机构编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>管理机构ID</t>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出生年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毕业院校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学历学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>职务职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -186,9 +123,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,185 +443,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA53C71-3CE5-4F3D-9168-384F7D2731F4}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2">
+    <row r="1" spans="1:11" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1963.11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1983.04</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1983.09</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FDFB58-6800-41D3-AD6B-98C667D8BABB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>